--- a/biology/Botanique/Alchemilla_fischeri/Alchemilla_fischeri.xlsx
+++ b/biology/Botanique/Alchemilla_fischeri/Alchemilla_fischeri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alchemilla fischeri est une espèce de plantes de la famille des Rosaceae et du genre Alchemilla.
-La sous-espèce Alchemilla fischeri Engl. subsp. camerunensis Letouzey est endémique du Cameroun. Elle a été récoltée en 1967 par René Letouzey, au mont Oku, dans la région du Nord-Ouest, à une altitude de près de 3 000 m[2].
+La sous-espèce Alchemilla fischeri Engl. subsp. camerunensis Letouzey est endémique du Cameroun. Elle a été récoltée en 1967 par René Letouzey, au mont Oku, dans la région du Nord-Ouest, à une altitude de près de 3 000 m.
 </t>
         </is>
       </c>
@@ -512,14 +524,16 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (28 septembre 2017)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (28 septembre 2017) :
 sous-espèce Alchemilla fischeri subsp. camerunensis
 sous-espèce Alchemilla fischeri subsp. fischeri
-Selon NCBI  (28 septembre 2017)[4] :
+Selon NCBI  (28 septembre 2017) :
 sous-espèce Alchemilla fischeri subsp. camerunensis
-Selon Tropicos                                           (28 septembre 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (28 septembre 2017) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Alchemilla fischeri subsp. camerunensis Letouzey
 sous-espèce Alchemilla fischeri subsp. fischeri Engl.</t>
         </is>
